--- a/Documentação/em-andamento/Planilha-de-riscos-Strongberry.xlsx
+++ b/Documentação/em-andamento/Planilha-de-riscos-Strongberry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Bandtec\Projeto Sprint2\StrongBerry\Documentação\em-andamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\Projeto Sprint2\StrongBerry\Documentação\em-andamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC077DD1-2636-4137-9E26-4E56E51C4480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6007A86-9CFF-4C26-9A70-AB20B9659740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4FE799BE-7C5F-4A5D-AA14-D10458B4BB43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>João Victor Ruas Araujo</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
 </sst>
 </file>
@@ -604,7 +619,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,8 +667,8 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -687,8 +702,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -722,8 +737,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -757,8 +772,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -790,8 +805,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
+      <c r="A6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>23</v>
@@ -871,5 +886,6 @@
     <row r="15" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/em-andamento/Planilha-de-riscos-Strongberry.xlsx
+++ b/Documentação/em-andamento/Planilha-de-riscos-Strongberry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\Projeto Sprint2\StrongBerry\Documentação\em-andamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\Projeto Sprint2\strongberry2\StrongBerry\Documentação\em-andamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6007A86-9CFF-4C26-9A70-AB20B9659740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85240525-EEAC-48FE-A018-E77C0FFDBE5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4FE799BE-7C5F-4A5D-AA14-D10458B4BB43}"/>
   </bookViews>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB85EF7C-7F67-4C50-BDBB-DA5E702B3666}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,56 +834,76 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="15" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2211043</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2211028</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2211011</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2211057</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2211038</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
